--- a/data/trans_camb/P23_7_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P23_7_R-Estudios-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,33</t>
+          <t>0,78</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-2,27</t>
+          <t>-2,88</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>5,08</t>
+          <t>-5,79</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,63</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,03</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>6,49</t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>1,95</t>
+          <t>1,36</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-0,43</t>
+          <t>6,55</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>5,87</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>1,62</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-0,55</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>1,48</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,67; 7,14</t>
+          <t>-5,75; 6,89</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-8,01; 2,28</t>
+          <t>-8,94; 2,26</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 10,51</t>
+          <t>-12,21; -1,16</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,08; 5,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,81; 5,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,18; 12,39</t>
+          <t>-3,88; 7,83</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 5,74</t>
+          <t>-4,42; 6,09</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-3,65; 2,88</t>
+          <t>-0,82; 13,71</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,88; 9,83</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-2,88; 5,31</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-4,78; 3,0</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-3,62; 6,32</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>29,81%</t>
+          <t>9,21%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-29,04%</t>
+          <t>-33,81%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>64,92%</t>
+          <t>-68,02%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>20,95%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>13,25%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>83,41%</t>
+          <t>28,95%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>25,01%</t>
+          <t>17,08%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-5,48%</t>
+          <t>82,41%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>75,25%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>19,7%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-6,77%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>18,08%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-31,26; 153,21</t>
+          <t>-47,43; 144,24</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-66,48; 52,77</t>
+          <t>-70,2; 52,9</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-14,1; 205,17</t>
+          <t>-91,47; 4,99</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-30,01; 108,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-37,64; 96,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>5,59; 217,24</t>
+          <t>-34,09; 163,7</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-17,07; 101,82</t>
+          <t>-40,33; 122,3</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-38,64; 47,79</t>
+          <t>-9,8; 297,83</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>18,65; 165,41</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-26,29; 95,08</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-42,81; 52,01</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-35,58; 104,67</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,52</t>
+          <t>0,89</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,61</t>
+          <t>0,64</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>6,74</t>
+          <t>3,43</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-4,33</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-2,07</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,19</t>
+          <t>-4,61</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-1,89</t>
+          <t>-2,4</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-0,74</t>
+          <t>-2,4</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>4,07</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-1,93</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-0,96</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>0,44</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,44; 4,37</t>
+          <t>-2,61; 6,19</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 3,48</t>
+          <t>-2,74; 3,74</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,97; 10,89</t>
+          <t>-0,76; 11,91</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,64; -1,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,45; 1,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,65; 5,22</t>
+          <t>-9,92; -1,39</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-4,2; 0,58</t>
+          <t>-6,9; 1,19</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,87; 1,59</t>
+          <t>-7,62; 1,57</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,6; 7,15</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-4,53; 1,23</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-4,12; 1,45</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-2,69; 5,72</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>8,76%</t>
+          <t>15,86%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>10,35%</t>
+          <t>11,46%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>113,79%</t>
+          <t>61,06%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-46,56%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-22,26%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>12,8%</t>
+          <t>-48,24%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-24,87%</t>
+          <t>-25,12%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-9,76%</t>
+          <t>-25,1%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>53,47%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-25,25%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-12,52%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>5,76%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-36,7; 100,92</t>
+          <t>-40,7; 158,62</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-31,14; 77,14</t>
+          <t>-36,77; 96,22</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>37,48; 241,52</t>
+          <t>-20,08; 307,36</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-65,95; -13,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-47,6; 20,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-25,2; 68,75</t>
+          <t>-73,05; -17,78</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-47,96; 9,83</t>
+          <t>-54,4; 16,79</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-33,55; 25,42</t>
+          <t>-59,24; 25,55</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>18,45; 109,84</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-47,94; 20,43</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-40,96; 23,99</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-30,33; 87,02</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1352,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,34</t>
+          <t>0,68</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,16</t>
+          <t>-0,28</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2,39</t>
+          <t>2,66</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-1,04</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,79</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>4,25</t>
+          <t>-0,04</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-0,36</t>
+          <t>1,92</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,33</t>
+          <t>3,98</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>3,37</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>0,29</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>0,86</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>3,34</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1435,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,45; 4,15</t>
+          <t>-5,33; 5,24</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,03; 2,4</t>
+          <t>-7,25; 2,57</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 6,66</t>
+          <t>-3,65; 6,34</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,39; 1,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 3,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,55; 8,63</t>
+          <t>-2,68; 2,1</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 2,13</t>
+          <t>-0,72; 4,34</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 2,17</t>
+          <t>1,07; 7,47</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,6; 6,21</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-2,74; 2,65</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-2,25; 2,7</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>0,1; 5,83</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1518,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>9,56%</t>
+          <t>18,35%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-4,47%</t>
+          <t>-7,61%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>66,47%</t>
+          <t>71,14%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-27,09%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>20,54%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>110,73%</t>
+          <t>-1,44%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-9,68%</t>
+          <t>69,08%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>9,0%</t>
+          <t>143,02%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>90,75%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>9,09%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>26,42%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>103,13%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1601,84 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-70,16; 193,95</t>
+          <t>-84,03; 310,28</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-66,46; 118,19</t>
+          <t>-76,68; 199,09</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-47,83; 274,88</t>
+          <t>-49,27; 441,75</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-62,72; 51,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-31,59; 114,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>5,46; 316,12</t>
+          <t>-64,42; 142,33</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-54,66; 78,03</t>
+          <t>-18,43; 292,37</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-40,27; 84,9</t>
+          <t>13,76; 429,81</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>4,65; 226,15</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-57,6; 137,16</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-41,43; 139,7</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-6,54; 280,12</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,97</t>
+          <t>2,39</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,16</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>5,84</t>
+          <t>0,63</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-1,88</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,5</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>3,98</t>
+          <t>-2,63</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-0,49</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-0,34</t>
+          <t>-0,55</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>4,89</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-0,05</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>-0,01</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 3,36</t>
+          <t>-1,12; 5,95</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,18; 1,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,44; 8,59</t>
+          <t>-2,45; 3,8</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,98; -0,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,46; 1,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,46; 6,65</t>
+          <t>-6,3; 1,22</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,03; 1,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 1,04</t>
+          <t>-4,63; 3,73</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>2,92; 6,86</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-2,59; 2,66</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-2,41; 2,77</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>17,57%</t>
+          <t>47,08%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-2,97%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>105,94%</t>
+          <t>12,39%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-25,75%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-6,84%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>54,52%</t>
+          <t>-31,25%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-7,62%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-5,3%</t>
+          <t>-6,49%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>75,98%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>-0,76%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>-0,13%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1439,60 +1937,434 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-19,61; 73,54</t>
+          <t>-18,01; 162,83</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-33,22; 44,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>50,62; 185,73</t>
+          <t>-41,77; 97,38</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-45,26; -0,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-29,35; 29,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>17,16; 107,51</t>
+          <t>-63,19; 22,27</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-27,11; 20,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-24,22; 18,95</t>
+          <t>-46,33; 56,29</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>39,77; 122,93</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-33,85; 49,2</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-30,75; 49,61</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>1,36</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-0,05</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>1,24</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-2,0</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-0,58</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>1,08</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>-0,35</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>-0,33</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>1,16</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-0,7; 3,68</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-1,88; 2,1</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-0,9; 4,35</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-4,15; -0,22</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-2,74; 1,47</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-1,45; 3,22</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-1,75; 1,11</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-1,68; 1,0</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>-0,42; 2,94</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>25,83%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-0,97%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>23,53%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-26,79%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-7,77%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>14,49%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>-5,54%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>-5,12%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>18,13%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-11,82; 86,11</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-30,57; 47,47</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-15,67; 91,89</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-47,13; -2,54</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-30,6; 23,57</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-17,23; 48,41</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-25,31; 19,29</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-23,45; 17,46</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>-6,01; 49,99</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
